--- a/EncontroRelacoes22.xlsx
+++ b/EncontroRelacoes22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berna\Documents\Blogs\InteligArtificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7838590C-5AB4-4B46-9EA4-E13E4316EBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2176211-183F-470F-B676-E2995BBA1789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
   <si>
     <t>Ação/Entidade</t>
   </si>
@@ -181,12 +181,6 @@
     <t>ontem, mês passado, semana passada</t>
   </si>
   <si>
-    <t>estou devendo, paguei</t>
-  </si>
-  <si>
-    <t>estou devendo, paguei, algumas</t>
-  </si>
-  <si>
     <t>está em atraso</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
     <t>tô devendo, atrasei,atrasou</t>
   </si>
   <si>
-    <t>estou, tô</t>
-  </si>
-  <si>
     <t>paguei, recebi</t>
   </si>
   <si>
@@ -326,6 +317,21 @@
   </si>
   <si>
     <t>errado</t>
+  </si>
+  <si>
+    <t>estou devendo</t>
+  </si>
+  <si>
+    <t>paguei</t>
+  </si>
+  <si>
+    <t>estou devendo, algumas</t>
+  </si>
+  <si>
+    <t>paguei, algumas</t>
+  </si>
+  <si>
+    <t>devendo, tô</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F144FA-C3E1-4C5C-8875-844CC08DCA6B}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1121,7 +1127,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>28</v>
@@ -1142,182 +1148,173 @@
         <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>9040</v>
+        <v>1515</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
+        <v>74</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>9040</v>
+        <v>1515</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>9040</v>
+        <v>1515</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
+        <v>80</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>9000</v>
+        <v>1515</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
+        <v>87</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>9040</v>
+        <v>3030</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>9075</v>
+        <v>3036</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
+        <v>69</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>9000</v>
+        <v>3036</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>5</v>
+        <v>62</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>97</v>
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>9075</v>
+        <v>3036</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1325,384 +1322,436 @@
         <v>3036</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>92</v>
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3030</v>
+        <v>3036</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>70</v>
+      <c r="F11" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9040</v>
+        <v>3036</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>9040</v>
+        <v>3036</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>70</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>57</v>
+        <v>71</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>9040</v>
+        <v>3036</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>42</v>
+        <v>71</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>9040</v>
+        <v>9000100</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>94</v>
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>9070</v>
+        <v>9000400</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>9070</v>
+        <v>9040100</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>9040</v>
+        <v>9040100</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>3036</v>
+        <v>9040200</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>3036</v>
+        <v>9040400</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>3036</v>
+        <v>9040500</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" t="s">
-        <v>69</v>
+        <v>5</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>3036</v>
+        <v>9040520</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>61</v>
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>98</v>
+        <v>5</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>3036</v>
+        <v>9040530</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>61</v>
+        <v>43</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>99</v>
+        <v>5</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>3036</v>
+        <v>9040540</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>3036</v>
+        <v>9040600</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>61</v>
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>74</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9070100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1515</v>
+        <v>9070200</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1515</v>
+        <v>9070400</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1515</v>
+        <v>9070500</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>79</v>
+        <v>46</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1515</v>
+        <v>9075300</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>91</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>9075400</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J31">
+    <sortCondition ref="A2:A31"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
